--- a/Code/Results/Cases/Case_4_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.006259271131077</v>
+        <v>1.0374894944573</v>
       </c>
       <c r="D2">
-        <v>1.021275043784013</v>
+        <v>1.03936817208185</v>
       </c>
       <c r="E2">
-        <v>1.014393141509399</v>
+        <v>1.041140036502686</v>
       </c>
       <c r="F2">
-        <v>1.011072734599657</v>
+        <v>1.046289641449599</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043258435434124</v>
+        <v>1.03897942308265</v>
       </c>
       <c r="J2">
-        <v>1.028254366741582</v>
+        <v>1.042592086551811</v>
       </c>
       <c r="K2">
-        <v>1.032445731524687</v>
+        <v>1.042153558752941</v>
       </c>
       <c r="L2">
-        <v>1.025655533686115</v>
+        <v>1.043920395528365</v>
       </c>
       <c r="M2">
-        <v>1.022379934246057</v>
+        <v>1.049055493391111</v>
       </c>
       <c r="N2">
-        <v>1.012839925900637</v>
+        <v>1.018061510580346</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>1.01150032965494</v>
+        <v>1.038566811896721</v>
       </c>
       <c r="D3">
-        <v>1.025091792438069</v>
+        <v>1.040169012468732</v>
       </c>
       <c r="E3">
-        <v>1.019132045131704</v>
+        <v>1.042166034829581</v>
       </c>
       <c r="F3">
-        <v>1.017005775626313</v>
+        <v>1.047584052641385</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04502864956257</v>
+        <v>1.039286177178536</v>
       </c>
       <c r="J3">
-        <v>1.031682319223422</v>
+        <v>1.04331316214976</v>
       </c>
       <c r="K3">
-        <v>1.035413377990108</v>
+        <v>1.04276462806853</v>
       </c>
       <c r="L3">
-        <v>1.029525843143429</v>
+        <v>1.044756394764788</v>
       </c>
       <c r="M3">
-        <v>1.027425591751616</v>
+        <v>1.05016026266764</v>
       </c>
       <c r="N3">
-        <v>1.014027299896906</v>
+        <v>1.018307140185712</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014812647376615</v>
+        <v>1.03926383179843</v>
       </c>
       <c r="D4">
-        <v>1.0275069623427</v>
+        <v>1.040687117658769</v>
       </c>
       <c r="E4">
-        <v>1.022132277268545</v>
+        <v>1.042830196718068</v>
       </c>
       <c r="F4">
-        <v>1.020758300378527</v>
+        <v>1.048421906658479</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046138014353824</v>
+        <v>1.039483451324692</v>
       </c>
       <c r="J4">
-        <v>1.033844886679014</v>
+        <v>1.043779109704424</v>
       </c>
       <c r="K4">
-        <v>1.037284361575491</v>
+        <v>1.043159286619796</v>
       </c>
       <c r="L4">
-        <v>1.031970726535327</v>
+        <v>1.045297010382684</v>
       </c>
       <c r="M4">
-        <v>1.030612483744238</v>
+        <v>1.050874858251994</v>
       </c>
       <c r="N4">
-        <v>1.01477577589144</v>
+        <v>1.018465712321608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.016187020100924</v>
+        <v>1.039556841426265</v>
       </c>
       <c r="D5">
-        <v>1.028509743290327</v>
+        <v>1.040904906915272</v>
       </c>
       <c r="E5">
-        <v>1.023378381428621</v>
+        <v>1.043109475857804</v>
       </c>
       <c r="F5">
-        <v>1.022316056461538</v>
+        <v>1.048774210006001</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04659602923822</v>
+        <v>1.039566094315913</v>
       </c>
       <c r="J5">
-        <v>1.03474123057529</v>
+        <v>1.043974841953926</v>
       </c>
       <c r="K5">
-        <v>1.038059550108488</v>
+        <v>1.043325023043193</v>
       </c>
       <c r="L5">
-        <v>1.032984867869625</v>
+        <v>1.045524206046213</v>
       </c>
       <c r="M5">
-        <v>1.031934364514885</v>
+        <v>1.051175212391989</v>
       </c>
       <c r="N5">
-        <v>1.015085853440938</v>
+        <v>1.018532288256329</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016416742423479</v>
+        <v>1.039606038026338</v>
       </c>
       <c r="D6">
-        <v>1.028677392193201</v>
+        <v>1.040941473386498</v>
       </c>
       <c r="E6">
-        <v>1.023586734880935</v>
+        <v>1.043156371902219</v>
       </c>
       <c r="F6">
-        <v>1.022576474725335</v>
+        <v>1.048833367413422</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046672449313959</v>
+        <v>1.039579953373315</v>
       </c>
       <c r="J6">
-        <v>1.034890994037181</v>
+        <v>1.044007697349101</v>
       </c>
       <c r="K6">
-        <v>1.038189052652531</v>
+        <v>1.043352840481625</v>
       </c>
       <c r="L6">
-        <v>1.033154359356906</v>
+        <v>1.045562348565306</v>
       </c>
       <c r="M6">
-        <v>1.032155286946922</v>
+        <v>1.051225639586815</v>
       </c>
       <c r="N6">
-        <v>1.015137652808559</v>
+        <v>1.018543461500125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014831082027326</v>
+        <v>1.039267747075345</v>
       </c>
       <c r="D7">
-        <v>1.027520410253397</v>
+        <v>1.040690027856718</v>
       </c>
       <c r="E7">
-        <v>1.022148986647913</v>
+        <v>1.04283392820195</v>
       </c>
       <c r="F7">
-        <v>1.020779191843656</v>
+        <v>1.048426613877792</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046144166874844</v>
+        <v>1.039484556747902</v>
       </c>
       <c r="J7">
-        <v>1.033856913324809</v>
+        <v>1.043781725685608</v>
       </c>
       <c r="K7">
-        <v>1.03729476382597</v>
+        <v>1.043161501897387</v>
       </c>
       <c r="L7">
-        <v>1.031984330622149</v>
+        <v>1.045300046492868</v>
       </c>
       <c r="M7">
-        <v>1.03063021607085</v>
+        <v>1.050878871840005</v>
       </c>
       <c r="N7">
-        <v>1.014779936952633</v>
+        <v>1.018466602257484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008047357299081</v>
+        <v>1.03785359524314</v>
       </c>
       <c r="D8">
-        <v>1.022576529054676</v>
+        <v>1.039638838837819</v>
       </c>
       <c r="E8">
-        <v>1.016008774308374</v>
+        <v>1.04148672121338</v>
       </c>
       <c r="F8">
-        <v>1.013096323279258</v>
+        <v>1.046727036090628</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043864330246859</v>
+        <v>1.039083343971687</v>
       </c>
       <c r="J8">
-        <v>1.02942467058881</v>
+        <v>1.042835909410763</v>
       </c>
       <c r="K8">
-        <v>1.033459130009838</v>
+        <v>1.042360226645169</v>
       </c>
       <c r="L8">
-        <v>1.026976176487219</v>
+        <v>1.044202994257957</v>
       </c>
       <c r="M8">
-        <v>1.024101771245087</v>
+        <v>1.049428910824578</v>
       </c>
       <c r="N8">
-        <v>1.013245414916016</v>
+        <v>1.018144598162248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9954505779750201</v>
+        <v>1.035361057715142</v>
       </c>
       <c r="D9">
-        <v>1.013423318168077</v>
+        <v>1.037785808838976</v>
       </c>
       <c r="E9">
-        <v>1.004651223224651</v>
+        <v>1.039114843417998</v>
       </c>
       <c r="F9">
-        <v>0.9988510314572953</v>
+        <v>1.043734258787805</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039557295690777</v>
+        <v>1.038367035207969</v>
       </c>
       <c r="J9">
-        <v>1.02116501728076</v>
+        <v>1.041164371285911</v>
       </c>
       <c r="K9">
-        <v>1.026302301817145</v>
+        <v>1.040942572062459</v>
       </c>
       <c r="L9">
-        <v>1.017669285642342</v>
+        <v>1.042267293544369</v>
       </c>
       <c r="M9">
-        <v>1.011962777420467</v>
+        <v>1.046871811134638</v>
       </c>
       <c r="N9">
-        <v>1.010381442896718</v>
+        <v>1.017574378239314</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.986562884683082</v>
+        <v>1.03369889634936</v>
       </c>
       <c r="D10">
-        <v>1.006988261863863</v>
+        <v>1.036549988055411</v>
       </c>
       <c r="E10">
-        <v>0.9966710520084665</v>
+        <v>1.037534964314455</v>
       </c>
       <c r="F10">
-        <v>0.9888115830846188</v>
+        <v>1.041740376298539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036470991852006</v>
+        <v>1.037883220448114</v>
       </c>
       <c r="J10">
-        <v>1.015319960088129</v>
+        <v>1.040046704099692</v>
       </c>
       <c r="K10">
-        <v>1.021232477102827</v>
+        <v>1.039993622737521</v>
       </c>
       <c r="L10">
-        <v>1.011100672897566</v>
+        <v>1.040975087591861</v>
       </c>
       <c r="M10">
-        <v>1.003385829592593</v>
+        <v>1.045165589783451</v>
       </c>
       <c r="N10">
-        <v>1.008352409612872</v>
+        <v>1.017192343629473</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9825839349121781</v>
+        <v>1.032979038334871</v>
       </c>
       <c r="D11">
-        <v>1.004113911379154</v>
+        <v>1.036014753035519</v>
       </c>
       <c r="E11">
-        <v>0.9931070334369203</v>
+        <v>1.036851179214901</v>
       </c>
       <c r="F11">
-        <v>0.9843189498339362</v>
+        <v>1.040877287593327</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035078592357062</v>
+        <v>1.037672232406196</v>
       </c>
       <c r="J11">
-        <v>1.012699630065243</v>
+        <v>1.039561951665412</v>
       </c>
       <c r="K11">
-        <v>1.018958660147789</v>
+        <v>1.039581801899764</v>
       </c>
       <c r="L11">
-        <v>1.008160122350177</v>
+        <v>1.040415130172759</v>
       </c>
       <c r="M11">
-        <v>0.9995427731039588</v>
+        <v>1.044426403906922</v>
       </c>
       <c r="N11">
-        <v>1.007442396896982</v>
+        <v>1.017026470216879</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9810850206603045</v>
+        <v>1.032711630138069</v>
       </c>
       <c r="D12">
-        <v>1.003032200671154</v>
+        <v>1.035815925309119</v>
       </c>
       <c r="E12">
-        <v>0.9917657969603888</v>
+        <v>1.036597237416965</v>
       </c>
       <c r="F12">
-        <v>0.9826267471747382</v>
+        <v>1.040556737217633</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034552506768067</v>
+        <v>1.037593637464846</v>
       </c>
       <c r="J12">
-        <v>1.011712044157131</v>
+        <v>1.03938177299703</v>
       </c>
       <c r="K12">
-        <v>1.018101538158129</v>
+        <v>1.039428694808214</v>
       </c>
       <c r="L12">
-        <v>1.007052470058448</v>
+        <v>1.040207072819945</v>
       </c>
       <c r="M12">
-        <v>0.9980945359123137</v>
+        <v>1.044151778317237</v>
       </c>
       <c r="N12">
-        <v>1.007099371618034</v>
+        <v>1.016964789777993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9814075140666844</v>
+        <v>1.032768991067629</v>
       </c>
       <c r="D13">
-        <v>1.003264881306182</v>
+        <v>1.035858575330019</v>
       </c>
       <c r="E13">
-        <v>0.9920543027857216</v>
+        <v>1.036651706702892</v>
       </c>
       <c r="F13">
-        <v>0.9829908180336686</v>
+        <v>1.040625494622923</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034665764075835</v>
+        <v>1.037610506514042</v>
       </c>
       <c r="J13">
-        <v>1.011924545308302</v>
+        <v>1.03942042737377</v>
       </c>
       <c r="K13">
-        <v>1.018285972852825</v>
+        <v>1.039461543071945</v>
       </c>
       <c r="L13">
-        <v>1.007290778052121</v>
+        <v>1.040251704744453</v>
       </c>
       <c r="M13">
-        <v>0.99840614989544</v>
+        <v>1.044210689139768</v>
       </c>
       <c r="N13">
-        <v>1.007173183082336</v>
+        <v>1.016978023504843</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9824604698853823</v>
+        <v>1.032956934722592</v>
       </c>
       <c r="D14">
-        <v>1.00402478853842</v>
+        <v>1.035998318233495</v>
       </c>
       <c r="E14">
-        <v>0.9929965280524059</v>
+        <v>1.036830187362839</v>
       </c>
       <c r="F14">
-        <v>0.9841795596381403</v>
+        <v>1.04085079001238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035035290114451</v>
+        <v>1.037665740306938</v>
       </c>
       <c r="J14">
-        <v>1.012618292370745</v>
+        <v>1.03954706049234</v>
       </c>
       <c r="K14">
-        <v>1.018888070099612</v>
+        <v>1.039569148847114</v>
       </c>
       <c r="L14">
-        <v>1.008068883329791</v>
+        <v>1.040397933400791</v>
       </c>
       <c r="M14">
-        <v>0.9994234929873611</v>
+        <v>1.044403704485084</v>
       </c>
       <c r="N14">
-        <v>1.007414146176086</v>
+        <v>1.0170213730734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9831064116426532</v>
+        <v>1.033072730209708</v>
       </c>
       <c r="D15">
-        <v>1.004491104517228</v>
+        <v>1.036084416111733</v>
       </c>
       <c r="E15">
-        <v>0.9935747239853971</v>
+        <v>1.036940161323331</v>
       </c>
       <c r="F15">
-        <v>0.984908826956858</v>
+        <v>1.040989607065789</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03526177494952</v>
+        <v>1.037699741901392</v>
       </c>
       <c r="J15">
-        <v>1.01304381406298</v>
+        <v>1.039625067413944</v>
       </c>
       <c r="K15">
-        <v>1.019257359643807</v>
+        <v>1.039635429954104</v>
       </c>
       <c r="L15">
-        <v>1.008546229590817</v>
+        <v>1.040488021173046</v>
       </c>
       <c r="M15">
-        <v>1.000047519036628</v>
+        <v>1.044522619730965</v>
       </c>
       <c r="N15">
-        <v>1.007561939209228</v>
+        <v>1.017048073204394</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9868240923994839</v>
+        <v>1.033746668091335</v>
       </c>
       <c r="D16">
-        <v>1.007177100537711</v>
+        <v>1.036585507377728</v>
       </c>
       <c r="E16">
-        <v>0.9969052060189431</v>
+        <v>1.03758035142347</v>
       </c>
       <c r="F16">
-        <v>0.9891065474673112</v>
+        <v>1.041797662271323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036562181448182</v>
+        <v>1.037897191549231</v>
       </c>
       <c r="J16">
-        <v>1.015491908728572</v>
+        <v>1.040078858720733</v>
       </c>
       <c r="K16">
-        <v>1.021381667541363</v>
+        <v>1.040020934527287</v>
       </c>
       <c r="L16">
-        <v>1.011293720864785</v>
+        <v>1.0410122411452</v>
       </c>
       <c r="M16">
-        <v>1.003638046699976</v>
+        <v>1.045214638936472</v>
       </c>
       <c r="N16">
-        <v>1.008412118305397</v>
+        <v>1.017203342616233</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9891202382727952</v>
+        <v>1.034169375573884</v>
       </c>
       <c r="D17">
-        <v>1.008837844180666</v>
+        <v>1.036899797431976</v>
       </c>
       <c r="E17">
-        <v>0.9989645251043553</v>
+        <v>1.037982009138677</v>
       </c>
       <c r="F17">
-        <v>0.9916996445111894</v>
+        <v>1.042304606176919</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037362576614163</v>
+        <v>1.038020646569819</v>
       </c>
       <c r="J17">
-        <v>1.017003026818532</v>
+        <v>1.040363296730856</v>
       </c>
       <c r="K17">
-        <v>1.022692668357277</v>
+        <v>1.040262504934452</v>
       </c>
       <c r="L17">
-        <v>1.012990734337832</v>
+        <v>1.041340956637084</v>
       </c>
       <c r="M17">
-        <v>1.005854791255111</v>
+        <v>1.045648621062077</v>
       </c>
       <c r="N17">
-        <v>1.008936806033748</v>
+        <v>1.017300618511344</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9904470450971091</v>
+        <v>1.034415921118967</v>
       </c>
       <c r="D18">
-        <v>1.009798104370168</v>
+        <v>1.037083106273685</v>
       </c>
       <c r="E18">
-        <v>1.000155296095814</v>
+        <v>1.038216319525841</v>
       </c>
       <c r="F18">
-        <v>0.9931982310729175</v>
+        <v>1.042600324716593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037824063446495</v>
+        <v>1.038092511754477</v>
       </c>
       <c r="J18">
-        <v>1.017875873653446</v>
+        <v>1.040529127925786</v>
       </c>
       <c r="K18">
-        <v>1.023449826228102</v>
+        <v>1.040403320169255</v>
       </c>
       <c r="L18">
-        <v>1.013971349465192</v>
+        <v>1.04153264997858</v>
       </c>
       <c r="M18">
-        <v>1.007135413948251</v>
+        <v>1.045901718877752</v>
       </c>
       <c r="N18">
-        <v>1.009239835660074</v>
+        <v>1.017357314490917</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9908973712967024</v>
+        <v>1.03449998468072</v>
       </c>
       <c r="D19">
-        <v>1.010124123808751</v>
+        <v>1.037145607950174</v>
       </c>
       <c r="E19">
-        <v>1.000559586700704</v>
+        <v>1.038296218459368</v>
       </c>
       <c r="F19">
-        <v>0.9937068944421089</v>
+        <v>1.042701161698508</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037980521314599</v>
+        <v>1.038116991501889</v>
       </c>
       <c r="J19">
-        <v>1.018172064076297</v>
+        <v>1.040585659088034</v>
       </c>
       <c r="K19">
-        <v>1.023706741791863</v>
+        <v>1.040451319491426</v>
       </c>
       <c r="L19">
-        <v>1.014304176328039</v>
+        <v>1.041598005543987</v>
       </c>
       <c r="M19">
-        <v>1.007570014475073</v>
+        <v>1.045988012537435</v>
       </c>
       <c r="N19">
-        <v>1.009342658300404</v>
+        <v>1.017376638994931</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.988875185437702</v>
+        <v>1.034124024370717</v>
       </c>
       <c r="D20">
-        <v>1.008660539215133</v>
+        <v>1.036866078245775</v>
       </c>
       <c r="E20">
-        <v>0.9987446624505826</v>
+        <v>1.037938911943576</v>
       </c>
       <c r="F20">
-        <v>0.9914228808315</v>
+        <v>1.042250213143681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037277260521157</v>
+        <v>1.038007415915127</v>
       </c>
       <c r="J20">
-        <v>1.016841789741859</v>
+        <v>1.040332787160006</v>
       </c>
       <c r="K20">
-        <v>1.022552793931191</v>
+        <v>1.040236595892678</v>
       </c>
       <c r="L20">
-        <v>1.012809621429859</v>
+        <v>1.041305692804392</v>
       </c>
       <c r="M20">
-        <v>1.005618244053002</v>
+        <v>1.045602062687523</v>
       </c>
       <c r="N20">
-        <v>1.008880825510949</v>
+        <v>1.01729018621841</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9821509905259519</v>
+        <v>1.032901590586333</v>
       </c>
       <c r="D21">
-        <v>1.003801409722356</v>
+        <v>1.035957167918415</v>
       </c>
       <c r="E21">
-        <v>0.9927195558159874</v>
+        <v>1.036777627979934</v>
       </c>
       <c r="F21">
-        <v>0.9838301653196432</v>
+        <v>1.040784445071151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034926723213566</v>
+        <v>1.037649481533526</v>
       </c>
       <c r="J21">
-        <v>1.012414402520931</v>
+        <v>1.039509773513153</v>
       </c>
       <c r="K21">
-        <v>1.018711119359107</v>
+        <v>1.039537465454309</v>
       </c>
       <c r="L21">
-        <v>1.007840183770268</v>
+        <v>1.040354874484001</v>
       </c>
       <c r="M21">
-        <v>0.9991244951794104</v>
+        <v>1.044346867921291</v>
       </c>
       <c r="N21">
-        <v>1.007343329152816</v>
+        <v>1.017008609574492</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9778012242025166</v>
+        <v>1.032132876571266</v>
       </c>
       <c r="D22">
-        <v>1.000664528761052</v>
+        <v>1.035385597985415</v>
       </c>
       <c r="E22">
-        <v>0.9888300399609876</v>
+        <v>1.036047751018824</v>
       </c>
       <c r="F22">
-        <v>0.9789198214221256</v>
+        <v>1.039863084206879</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033397167874027</v>
+        <v>1.037423134447667</v>
       </c>
       <c r="J22">
-        <v>1.009547638471839</v>
+        <v>1.038991617426631</v>
       </c>
       <c r="K22">
-        <v>1.016222832691584</v>
+        <v>1.039097092929956</v>
       </c>
       <c r="L22">
-        <v>1.004626071768439</v>
+        <v>1.039756685336145</v>
       </c>
       <c r="M22">
-        <v>0.9949207756787147</v>
+        <v>1.043557334640014</v>
       </c>
       <c r="N22">
-        <v>1.006347520908575</v>
+        <v>1.016831179619102</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9801191636841349</v>
+        <v>1.032540398311486</v>
       </c>
       <c r="D23">
-        <v>1.002335497668593</v>
+        <v>1.035688607721678</v>
       </c>
       <c r="E23">
-        <v>0.990901937929025</v>
+        <v>1.03643464736524</v>
       </c>
       <c r="F23">
-        <v>0.981536393779198</v>
+        <v>1.040351494376055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034213081430317</v>
+        <v>1.037543248592454</v>
       </c>
       <c r="J23">
-        <v>1.011075544473332</v>
+        <v>1.03926636781471</v>
       </c>
       <c r="K23">
-        <v>1.017549087043555</v>
+        <v>1.039330618824218</v>
       </c>
       <c r="L23">
-        <v>1.00633876300134</v>
+        <v>1.040073832169495</v>
       </c>
       <c r="M23">
-        <v>0.9971611843215084</v>
+        <v>1.043975914250591</v>
       </c>
       <c r="N23">
-        <v>1.006878279983441</v>
+        <v>1.016925275734629</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9889859527834896</v>
+        <v>1.034144516665811</v>
       </c>
       <c r="D24">
-        <v>1.008740681666562</v>
+        <v>1.03688131452915</v>
       </c>
       <c r="E24">
-        <v>0.998844040963245</v>
+        <v>1.037958385617272</v>
       </c>
       <c r="F24">
-        <v>0.9915479813349999</v>
+        <v>1.042274790930889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037315827751679</v>
+        <v>1.038013394723416</v>
       </c>
       <c r="J24">
-        <v>1.016914672235363</v>
+        <v>1.040346573358524</v>
       </c>
       <c r="K24">
-        <v>1.022616020370031</v>
+        <v>1.040248303347302</v>
       </c>
       <c r="L24">
-        <v>1.012891486993648</v>
+        <v>1.041321627138438</v>
       </c>
       <c r="M24">
-        <v>1.00572516766961</v>
+        <v>1.045623100525536</v>
       </c>
       <c r="N24">
-        <v>1.008906129986136</v>
+        <v>1.017294900256589</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9987889835705503</v>
+        <v>1.036005517389412</v>
       </c>
       <c r="D25">
-        <v>1.015845501860287</v>
+        <v>1.038264944153457</v>
       </c>
       <c r="E25">
-        <v>1.007655750246013</v>
+        <v>1.039727787173971</v>
       </c>
       <c r="F25">
-        <v>1.002624151323709</v>
+        <v>1.044507726078981</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040707074214924</v>
+        <v>1.038553323652858</v>
       </c>
       <c r="J25">
-        <v>1.023357172094414</v>
+        <v>1.041597085522584</v>
       </c>
       <c r="K25">
-        <v>1.028202717687453</v>
+        <v>1.041309746915057</v>
       </c>
       <c r="L25">
-        <v>1.020136371770749</v>
+        <v>1.042768023487114</v>
       </c>
       <c r="M25">
-        <v>1.015181866850222</v>
+        <v>1.047533138585178</v>
       </c>
       <c r="N25">
-        <v>1.011141997110308</v>
+        <v>1.017722126499095</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_218/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_218/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.0374894944573</v>
+        <v>1.006259271131078</v>
       </c>
       <c r="D2">
-        <v>1.03936817208185</v>
+        <v>1.021275043784013</v>
       </c>
       <c r="E2">
-        <v>1.041140036502686</v>
+        <v>1.0143931415094</v>
       </c>
       <c r="F2">
-        <v>1.046289641449599</v>
+        <v>1.011072734599658</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03897942308265</v>
+        <v>1.043258435434125</v>
       </c>
       <c r="J2">
-        <v>1.042592086551811</v>
+        <v>1.028254366741582</v>
       </c>
       <c r="K2">
-        <v>1.042153558752941</v>
+        <v>1.032445731524688</v>
       </c>
       <c r="L2">
-        <v>1.043920395528365</v>
+        <v>1.025655533686116</v>
       </c>
       <c r="M2">
-        <v>1.049055493391111</v>
+        <v>1.022379934246058</v>
       </c>
       <c r="N2">
-        <v>1.018061510580346</v>
+        <v>1.012839925900637</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038566811896721</v>
+        <v>1.01150032965494</v>
       </c>
       <c r="D3">
-        <v>1.040169012468732</v>
+        <v>1.02509179243807</v>
       </c>
       <c r="E3">
-        <v>1.042166034829581</v>
+        <v>1.019132045131705</v>
       </c>
       <c r="F3">
-        <v>1.047584052641385</v>
+        <v>1.017005775626313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039286177178536</v>
+        <v>1.04502864956257</v>
       </c>
       <c r="J3">
-        <v>1.04331316214976</v>
+        <v>1.031682319223422</v>
       </c>
       <c r="K3">
-        <v>1.04276462806853</v>
+        <v>1.035413377990108</v>
       </c>
       <c r="L3">
-        <v>1.044756394764788</v>
+        <v>1.029525843143429</v>
       </c>
       <c r="M3">
-        <v>1.05016026266764</v>
+        <v>1.027425591751617</v>
       </c>
       <c r="N3">
-        <v>1.018307140185712</v>
+        <v>1.014027299896906</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03926383179843</v>
+        <v>1.014812647376614</v>
       </c>
       <c r="D4">
-        <v>1.040687117658769</v>
+        <v>1.027506962342699</v>
       </c>
       <c r="E4">
-        <v>1.042830196718068</v>
+        <v>1.022132277268545</v>
       </c>
       <c r="F4">
-        <v>1.048421906658479</v>
+        <v>1.020758300378527</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039483451324692</v>
+        <v>1.046138014353824</v>
       </c>
       <c r="J4">
-        <v>1.043779109704424</v>
+        <v>1.033844886679014</v>
       </c>
       <c r="K4">
-        <v>1.043159286619796</v>
+        <v>1.037284361575491</v>
       </c>
       <c r="L4">
-        <v>1.045297010382684</v>
+        <v>1.031970726535327</v>
       </c>
       <c r="M4">
-        <v>1.050874858251994</v>
+        <v>1.030612483744238</v>
       </c>
       <c r="N4">
-        <v>1.018465712321608</v>
+        <v>1.01477577589144</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039556841426265</v>
+        <v>1.016187020100924</v>
       </c>
       <c r="D5">
-        <v>1.040904906915272</v>
+        <v>1.028509743290327</v>
       </c>
       <c r="E5">
-        <v>1.043109475857804</v>
+        <v>1.023378381428621</v>
       </c>
       <c r="F5">
-        <v>1.048774210006001</v>
+        <v>1.022316056461538</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039566094315913</v>
+        <v>1.04659602923822</v>
       </c>
       <c r="J5">
-        <v>1.043974841953926</v>
+        <v>1.03474123057529</v>
       </c>
       <c r="K5">
-        <v>1.043325023043193</v>
+        <v>1.038059550108488</v>
       </c>
       <c r="L5">
-        <v>1.045524206046213</v>
+        <v>1.032984867869625</v>
       </c>
       <c r="M5">
-        <v>1.051175212391989</v>
+        <v>1.031934364514885</v>
       </c>
       <c r="N5">
-        <v>1.018532288256329</v>
+        <v>1.015085853440938</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039606038026338</v>
+        <v>1.016416742423478</v>
       </c>
       <c r="D6">
-        <v>1.040941473386498</v>
+        <v>1.028677392193201</v>
       </c>
       <c r="E6">
-        <v>1.043156371902219</v>
+        <v>1.023586734880934</v>
       </c>
       <c r="F6">
-        <v>1.048833367413422</v>
+        <v>1.022576474725335</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039579953373315</v>
+        <v>1.046672449313959</v>
       </c>
       <c r="J6">
-        <v>1.044007697349101</v>
+        <v>1.034890994037181</v>
       </c>
       <c r="K6">
-        <v>1.043352840481625</v>
+        <v>1.038189052652531</v>
       </c>
       <c r="L6">
-        <v>1.045562348565306</v>
+        <v>1.033154359356906</v>
       </c>
       <c r="M6">
-        <v>1.051225639586815</v>
+        <v>1.032155286946921</v>
       </c>
       <c r="N6">
-        <v>1.018543461500125</v>
+        <v>1.015137652808558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039267747075345</v>
+        <v>1.014831082027326</v>
       </c>
       <c r="D7">
-        <v>1.040690027856718</v>
+        <v>1.027520410253396</v>
       </c>
       <c r="E7">
-        <v>1.04283392820195</v>
+        <v>1.022148986647913</v>
       </c>
       <c r="F7">
-        <v>1.048426613877792</v>
+        <v>1.020779191843656</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039484556747902</v>
+        <v>1.046144166874844</v>
       </c>
       <c r="J7">
-        <v>1.043781725685608</v>
+        <v>1.033856913324809</v>
       </c>
       <c r="K7">
-        <v>1.043161501897387</v>
+        <v>1.037294763825969</v>
       </c>
       <c r="L7">
-        <v>1.045300046492868</v>
+        <v>1.031984330622149</v>
       </c>
       <c r="M7">
-        <v>1.050878871840005</v>
+        <v>1.030630216070851</v>
       </c>
       <c r="N7">
-        <v>1.018466602257484</v>
+        <v>1.014779936952633</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03785359524314</v>
+        <v>1.008047357299081</v>
       </c>
       <c r="D8">
-        <v>1.039638838837819</v>
+        <v>1.022576529054675</v>
       </c>
       <c r="E8">
-        <v>1.04148672121338</v>
+        <v>1.016008774308373</v>
       </c>
       <c r="F8">
-        <v>1.046727036090628</v>
+        <v>1.013096323279258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039083343971687</v>
+        <v>1.043864330246859</v>
       </c>
       <c r="J8">
-        <v>1.042835909410763</v>
+        <v>1.02942467058881</v>
       </c>
       <c r="K8">
-        <v>1.042360226645169</v>
+        <v>1.033459130009838</v>
       </c>
       <c r="L8">
-        <v>1.044202994257957</v>
+        <v>1.026976176487219</v>
       </c>
       <c r="M8">
-        <v>1.049428910824578</v>
+        <v>1.024101771245087</v>
       </c>
       <c r="N8">
-        <v>1.018144598162248</v>
+        <v>1.013245414916015</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035361057715142</v>
+        <v>0.9954505779750193</v>
       </c>
       <c r="D9">
-        <v>1.037785808838976</v>
+        <v>1.013423318168076</v>
       </c>
       <c r="E9">
-        <v>1.039114843417998</v>
+        <v>1.004651223224651</v>
       </c>
       <c r="F9">
-        <v>1.043734258787805</v>
+        <v>0.9988510314572943</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038367035207969</v>
+        <v>1.039557295690777</v>
       </c>
       <c r="J9">
-        <v>1.041164371285911</v>
+        <v>1.02116501728076</v>
       </c>
       <c r="K9">
-        <v>1.040942572062459</v>
+        <v>1.026302301817144</v>
       </c>
       <c r="L9">
-        <v>1.042267293544369</v>
+        <v>1.017669285642341</v>
       </c>
       <c r="M9">
-        <v>1.046871811134638</v>
+        <v>1.011962777420466</v>
       </c>
       <c r="N9">
-        <v>1.017574378239314</v>
+        <v>1.010381442896717</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03369889634936</v>
+        <v>0.9865628846830821</v>
       </c>
       <c r="D10">
-        <v>1.036549988055411</v>
+        <v>1.006988261863863</v>
       </c>
       <c r="E10">
-        <v>1.037534964314455</v>
+        <v>0.9966710520084667</v>
       </c>
       <c r="F10">
-        <v>1.041740376298539</v>
+        <v>0.9888115830846189</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037883220448114</v>
+        <v>1.036470991852006</v>
       </c>
       <c r="J10">
-        <v>1.040046704099692</v>
+        <v>1.015319960088129</v>
       </c>
       <c r="K10">
-        <v>1.039993622737521</v>
+        <v>1.021232477102827</v>
       </c>
       <c r="L10">
-        <v>1.040975087591861</v>
+        <v>1.011100672897567</v>
       </c>
       <c r="M10">
-        <v>1.045165589783451</v>
+        <v>1.003385829592593</v>
       </c>
       <c r="N10">
-        <v>1.017192343629473</v>
+        <v>1.008352409612872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032979038334871</v>
+        <v>0.9825839349121797</v>
       </c>
       <c r="D11">
-        <v>1.036014753035519</v>
+        <v>1.004113911379155</v>
       </c>
       <c r="E11">
-        <v>1.036851179214901</v>
+        <v>0.9931070334369222</v>
       </c>
       <c r="F11">
-        <v>1.040877287593327</v>
+        <v>0.9843189498339373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037672232406196</v>
+        <v>1.035078592357063</v>
       </c>
       <c r="J11">
-        <v>1.039561951665412</v>
+        <v>1.012699630065245</v>
       </c>
       <c r="K11">
-        <v>1.039581801899764</v>
+        <v>1.018958660147791</v>
       </c>
       <c r="L11">
-        <v>1.040415130172759</v>
+        <v>1.008160122350179</v>
       </c>
       <c r="M11">
-        <v>1.044426403906922</v>
+        <v>0.9995427731039599</v>
       </c>
       <c r="N11">
-        <v>1.017026470216879</v>
+        <v>1.007442396896982</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032711630138069</v>
+        <v>0.9810850206603043</v>
       </c>
       <c r="D12">
-        <v>1.035815925309119</v>
+        <v>1.003032200671154</v>
       </c>
       <c r="E12">
-        <v>1.036597237416965</v>
+        <v>0.9917657969603887</v>
       </c>
       <c r="F12">
-        <v>1.040556737217633</v>
+        <v>0.9826267471747379</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037593637464846</v>
+        <v>1.034552506768068</v>
       </c>
       <c r="J12">
-        <v>1.03938177299703</v>
+        <v>1.011712044157131</v>
       </c>
       <c r="K12">
-        <v>1.039428694808214</v>
+        <v>1.018101538158129</v>
       </c>
       <c r="L12">
-        <v>1.040207072819945</v>
+        <v>1.007052470058448</v>
       </c>
       <c r="M12">
-        <v>1.044151778317237</v>
+        <v>0.9980945359123135</v>
       </c>
       <c r="N12">
-        <v>1.016964789777993</v>
+        <v>1.007099371618034</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032768991067629</v>
+        <v>0.9814075140666858</v>
       </c>
       <c r="D13">
-        <v>1.035858575330019</v>
+        <v>1.003264881306183</v>
       </c>
       <c r="E13">
-        <v>1.036651706702892</v>
+        <v>0.9920543027857229</v>
       </c>
       <c r="F13">
-        <v>1.040625494622923</v>
+        <v>0.9829908180336698</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037610506514042</v>
+        <v>1.034665764075836</v>
       </c>
       <c r="J13">
-        <v>1.03942042737377</v>
+        <v>1.011924545308304</v>
       </c>
       <c r="K13">
-        <v>1.039461543071945</v>
+        <v>1.018285972852826</v>
       </c>
       <c r="L13">
-        <v>1.040251704744453</v>
+        <v>1.007290778052123</v>
       </c>
       <c r="M13">
-        <v>1.044210689139768</v>
+        <v>0.9984061498954411</v>
       </c>
       <c r="N13">
-        <v>1.016978023504843</v>
+        <v>1.007173183082337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032956934722592</v>
+        <v>0.9824604698853829</v>
       </c>
       <c r="D14">
-        <v>1.035998318233495</v>
+        <v>1.004024788538421</v>
       </c>
       <c r="E14">
-        <v>1.036830187362839</v>
+        <v>0.9929965280524062</v>
       </c>
       <c r="F14">
-        <v>1.04085079001238</v>
+        <v>0.984179559638141</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037665740306938</v>
+        <v>1.035035290114451</v>
       </c>
       <c r="J14">
-        <v>1.03954706049234</v>
+        <v>1.012618292370746</v>
       </c>
       <c r="K14">
-        <v>1.039569148847114</v>
+        <v>1.018888070099613</v>
       </c>
       <c r="L14">
-        <v>1.040397933400791</v>
+        <v>1.008068883329792</v>
       </c>
       <c r="M14">
-        <v>1.044403704485084</v>
+        <v>0.9994234929873619</v>
       </c>
       <c r="N14">
-        <v>1.0170213730734</v>
+        <v>1.007414146176086</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033072730209708</v>
+        <v>0.9831064116426509</v>
       </c>
       <c r="D15">
-        <v>1.036084416111733</v>
+        <v>1.004491104517226</v>
       </c>
       <c r="E15">
-        <v>1.036940161323331</v>
+        <v>0.9935747239853949</v>
       </c>
       <c r="F15">
-        <v>1.040989607065789</v>
+        <v>0.9849088269568553</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037699741901392</v>
+        <v>1.035261774949519</v>
       </c>
       <c r="J15">
-        <v>1.039625067413944</v>
+        <v>1.013043814062977</v>
       </c>
       <c r="K15">
-        <v>1.039635429954104</v>
+        <v>1.019257359643804</v>
       </c>
       <c r="L15">
-        <v>1.040488021173046</v>
+        <v>1.008546229590815</v>
       </c>
       <c r="M15">
-        <v>1.044522619730965</v>
+        <v>1.000047519036625</v>
       </c>
       <c r="N15">
-        <v>1.017048073204394</v>
+        <v>1.007561939209227</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.033746668091335</v>
+        <v>0.9868240923994844</v>
       </c>
       <c r="D16">
-        <v>1.036585507377728</v>
+        <v>1.007177100537712</v>
       </c>
       <c r="E16">
-        <v>1.03758035142347</v>
+        <v>0.9969052060189439</v>
       </c>
       <c r="F16">
-        <v>1.041797662271323</v>
+        <v>0.9891065474673116</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037897191549231</v>
+        <v>1.036562181448182</v>
       </c>
       <c r="J16">
-        <v>1.040078858720733</v>
+        <v>1.015491908728573</v>
       </c>
       <c r="K16">
-        <v>1.040020934527287</v>
+        <v>1.021381667541364</v>
       </c>
       <c r="L16">
-        <v>1.0410122411452</v>
+        <v>1.011293720864786</v>
       </c>
       <c r="M16">
-        <v>1.045214638936472</v>
+        <v>1.003638046699977</v>
       </c>
       <c r="N16">
-        <v>1.017203342616233</v>
+        <v>1.008412118305398</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034169375573884</v>
+        <v>0.9891202382727941</v>
       </c>
       <c r="D17">
-        <v>1.036899797431976</v>
+        <v>1.008837844180665</v>
       </c>
       <c r="E17">
-        <v>1.037982009138677</v>
+        <v>0.9989645251043543</v>
       </c>
       <c r="F17">
-        <v>1.042304606176919</v>
+        <v>0.9916996445111884</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038020646569819</v>
+        <v>1.037362576614163</v>
       </c>
       <c r="J17">
-        <v>1.040363296730856</v>
+        <v>1.017003026818531</v>
       </c>
       <c r="K17">
-        <v>1.040262504934452</v>
+        <v>1.022692668357276</v>
       </c>
       <c r="L17">
-        <v>1.041340956637084</v>
+        <v>1.012990734337831</v>
       </c>
       <c r="M17">
-        <v>1.045648621062077</v>
+        <v>1.00585479125511</v>
       </c>
       <c r="N17">
-        <v>1.017300618511344</v>
+        <v>1.008936806033748</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034415921118967</v>
+        <v>0.9904470450971088</v>
       </c>
       <c r="D18">
-        <v>1.037083106273685</v>
+        <v>1.009798104370167</v>
       </c>
       <c r="E18">
-        <v>1.038216319525841</v>
+        <v>1.000155296095813</v>
       </c>
       <c r="F18">
-        <v>1.042600324716593</v>
+        <v>0.9931982310729172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038092511754477</v>
+        <v>1.037824063446495</v>
       </c>
       <c r="J18">
-        <v>1.040529127925786</v>
+        <v>1.017875873653446</v>
       </c>
       <c r="K18">
-        <v>1.040403320169255</v>
+        <v>1.023449826228101</v>
       </c>
       <c r="L18">
-        <v>1.04153264997858</v>
+        <v>1.013971349465191</v>
       </c>
       <c r="M18">
-        <v>1.045901718877752</v>
+        <v>1.007135413948251</v>
       </c>
       <c r="N18">
-        <v>1.017357314490917</v>
+        <v>1.009239835660074</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03449998468072</v>
+        <v>0.9908973712967039</v>
       </c>
       <c r="D19">
-        <v>1.037145607950174</v>
+        <v>1.010124123808752</v>
       </c>
       <c r="E19">
-        <v>1.038296218459368</v>
+        <v>1.000559586700706</v>
       </c>
       <c r="F19">
-        <v>1.042701161698508</v>
+        <v>0.9937068944421101</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038116991501889</v>
+        <v>1.0379805213146</v>
       </c>
       <c r="J19">
-        <v>1.040585659088034</v>
+        <v>1.018172064076298</v>
       </c>
       <c r="K19">
-        <v>1.040451319491426</v>
+        <v>1.023706741791865</v>
       </c>
       <c r="L19">
-        <v>1.041598005543987</v>
+        <v>1.01430417632804</v>
       </c>
       <c r="M19">
-        <v>1.045988012537435</v>
+        <v>1.007570014475074</v>
       </c>
       <c r="N19">
-        <v>1.017376638994931</v>
+        <v>1.009342658300405</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034124024370717</v>
+        <v>0.9888751854377018</v>
       </c>
       <c r="D20">
-        <v>1.036866078245775</v>
+        <v>1.008660539215133</v>
       </c>
       <c r="E20">
-        <v>1.037938911943576</v>
+        <v>0.9987446624505825</v>
       </c>
       <c r="F20">
-        <v>1.042250213143681</v>
+        <v>0.9914228808314995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038007415915127</v>
+        <v>1.037277260521157</v>
       </c>
       <c r="J20">
-        <v>1.040332787160006</v>
+        <v>1.016841789741859</v>
       </c>
       <c r="K20">
-        <v>1.040236595892678</v>
+        <v>1.022552793931191</v>
       </c>
       <c r="L20">
-        <v>1.041305692804392</v>
+        <v>1.012809621429859</v>
       </c>
       <c r="M20">
-        <v>1.045602062687523</v>
+        <v>1.005618244053002</v>
       </c>
       <c r="N20">
-        <v>1.01729018621841</v>
+        <v>1.008880825510949</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.032901590586333</v>
+        <v>0.9821509905259521</v>
       </c>
       <c r="D21">
-        <v>1.035957167918415</v>
+        <v>1.003801409722356</v>
       </c>
       <c r="E21">
-        <v>1.036777627979934</v>
+        <v>0.992719555815988</v>
       </c>
       <c r="F21">
-        <v>1.040784445071151</v>
+        <v>0.9838301653196435</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037649481533526</v>
+        <v>1.034926723213566</v>
       </c>
       <c r="J21">
-        <v>1.039509773513153</v>
+        <v>1.012414402520931</v>
       </c>
       <c r="K21">
-        <v>1.039537465454309</v>
+        <v>1.018711119359107</v>
       </c>
       <c r="L21">
-        <v>1.040354874484001</v>
+        <v>1.007840183770269</v>
       </c>
       <c r="M21">
-        <v>1.044346867921291</v>
+        <v>0.9991244951794109</v>
       </c>
       <c r="N21">
-        <v>1.017008609574492</v>
+        <v>1.007343329152816</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032132876571266</v>
+        <v>0.9778012242025154</v>
       </c>
       <c r="D22">
-        <v>1.035385597985415</v>
+        <v>1.00066452876105</v>
       </c>
       <c r="E22">
-        <v>1.036047751018824</v>
+        <v>0.9888300399609865</v>
       </c>
       <c r="F22">
-        <v>1.039863084206879</v>
+        <v>0.9789198214221246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037423134447667</v>
+        <v>1.033397167874027</v>
       </c>
       <c r="J22">
-        <v>1.038991617426631</v>
+        <v>1.009547638471838</v>
       </c>
       <c r="K22">
-        <v>1.039097092929956</v>
+        <v>1.016222832691583</v>
       </c>
       <c r="L22">
-        <v>1.039756685336145</v>
+        <v>1.004626071768438</v>
       </c>
       <c r="M22">
-        <v>1.043557334640014</v>
+        <v>0.9949207756787138</v>
       </c>
       <c r="N22">
-        <v>1.016831179619102</v>
+        <v>1.006347520908575</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.032540398311486</v>
+        <v>0.9801191636841339</v>
       </c>
       <c r="D23">
-        <v>1.035688607721678</v>
+        <v>1.002335497668592</v>
       </c>
       <c r="E23">
-        <v>1.03643464736524</v>
+        <v>0.9909019379290238</v>
       </c>
       <c r="F23">
-        <v>1.040351494376055</v>
+        <v>0.9815363937791967</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037543248592454</v>
+        <v>1.034213081430317</v>
       </c>
       <c r="J23">
-        <v>1.03926636781471</v>
+        <v>1.011075544473331</v>
       </c>
       <c r="K23">
-        <v>1.039330618824218</v>
+        <v>1.017549087043554</v>
       </c>
       <c r="L23">
-        <v>1.040073832169495</v>
+        <v>1.006338763001339</v>
       </c>
       <c r="M23">
-        <v>1.043975914250591</v>
+        <v>0.9971611843215074</v>
       </c>
       <c r="N23">
-        <v>1.016925275734629</v>
+        <v>1.006878279983441</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034144516665811</v>
+        <v>0.9889859527834882</v>
       </c>
       <c r="D24">
-        <v>1.03688131452915</v>
+        <v>1.008740681666561</v>
       </c>
       <c r="E24">
-        <v>1.037958385617272</v>
+        <v>0.9988440409632438</v>
       </c>
       <c r="F24">
-        <v>1.042274790930889</v>
+        <v>0.9915479813349986</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038013394723416</v>
+        <v>1.037315827751678</v>
       </c>
       <c r="J24">
-        <v>1.040346573358524</v>
+        <v>1.016914672235362</v>
       </c>
       <c r="K24">
-        <v>1.040248303347302</v>
+        <v>1.02261602037003</v>
       </c>
       <c r="L24">
-        <v>1.041321627138438</v>
+        <v>1.012891486993646</v>
       </c>
       <c r="M24">
-        <v>1.045623100525536</v>
+        <v>1.005725167669609</v>
       </c>
       <c r="N24">
-        <v>1.017294900256589</v>
+        <v>1.008906129986136</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.036005517389412</v>
+        <v>0.9987889835705497</v>
       </c>
       <c r="D25">
-        <v>1.038264944153457</v>
+        <v>1.015845501860286</v>
       </c>
       <c r="E25">
-        <v>1.039727787173971</v>
+        <v>1.007655750246012</v>
       </c>
       <c r="F25">
-        <v>1.044507726078981</v>
+        <v>1.002624151323708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038553323652858</v>
+        <v>1.040707074214924</v>
       </c>
       <c r="J25">
-        <v>1.041597085522584</v>
+        <v>1.023357172094413</v>
       </c>
       <c r="K25">
-        <v>1.041309746915057</v>
+        <v>1.028202717687452</v>
       </c>
       <c r="L25">
-        <v>1.042768023487114</v>
+        <v>1.020136371770748</v>
       </c>
       <c r="M25">
-        <v>1.047533138585178</v>
+        <v>1.015181866850222</v>
       </c>
       <c r="N25">
-        <v>1.017722126499095</v>
+        <v>1.011141997110308</v>
       </c>
     </row>
   </sheetData>
